--- a/shared/TaxCalc_2017.xlsx
+++ b/shared/TaxCalc_2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\papithak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\angularjs\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eY4wK6vy1TKJ3nccScH8qkPgIESiSZSDDBeRW4o0vVfU7T8Gx9WVAaDh2BYjD89VhLYOpkltg/nzBYRGzL7itw==" workbookSaltValue="9K9xraYZzjLqDzAlHIvEdw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -4145,6 +4145,42 @@
       <alignment vertical="top"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -4177,40 +4213,60 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4225,10 +4281,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
@@ -4245,58 +4297,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
@@ -4367,100 +4367,76 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="10" borderId="62" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="62" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="13" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="13" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="2"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="40" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="10" borderId="62" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="62" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="13" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="13" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="63" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="64" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="10" borderId="63" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="10" borderId="64" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4472,6 +4448,30 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="13" borderId="60" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="63" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="64" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="10" borderId="63" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="10" borderId="64" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -4863,34 +4863,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="127" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="288" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="280"/>
+      <c r="B1" s="289"/>
     </row>
     <row r="2" spans="1:2" s="127" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="290" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="282"/>
+      <c r="B2" s="291"/>
     </row>
     <row r="3" spans="1:2" s="127" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="292" t="s">
         <v>424</v>
       </c>
-      <c r="B3" s="284"/>
+      <c r="B3" s="293"/>
     </row>
     <row r="4" spans="1:2" s="127" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="294" t="s">
         <v>373</v>
       </c>
-      <c r="B4" s="286"/>
+      <c r="B4" s="295"/>
     </row>
     <row r="5" spans="1:2" s="127" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="290" t="s">
+      <c r="A5" s="282" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="291"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:2" s="127" customFormat="1" ht="13.5" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:2" s="128" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -4914,30 +4914,30 @@
       <c r="B9" s="130"/>
     </row>
     <row r="10" spans="1:2" s="128" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="293"/>
+      <c r="B10" s="285"/>
     </row>
     <row r="11" spans="1:2" s="128" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="129"/>
       <c r="B11" s="130"/>
     </row>
     <row r="12" spans="1:2" s="128" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="294" t="s">
+      <c r="A12" s="286" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="295"/>
+      <c r="B12" s="287"/>
     </row>
     <row r="13" spans="1:2" s="128" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="129"/>
       <c r="B13" s="130"/>
     </row>
     <row r="14" spans="1:2" s="129" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="287" t="s">
+      <c r="A14" s="279" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="288"/>
+      <c r="B14" s="280"/>
     </row>
     <row r="15" spans="1:2" s="133" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="131"/>
@@ -5228,10 +5228,10 @@
       <c r="B51" s="132"/>
     </row>
     <row r="52" spans="1:2" s="133" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="287" t="s">
+      <c r="A52" s="279" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="288"/>
+      <c r="B52" s="280"/>
     </row>
     <row r="53" spans="1:2" s="133" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A53" s="132"/>
@@ -5426,10 +5426,10 @@
       <c r="B77" s="132"/>
     </row>
     <row r="78" spans="1:2" s="133" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="287" t="s">
+      <c r="A78" s="279" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="288"/>
+      <c r="B78" s="280"/>
     </row>
     <row r="79" spans="1:2" s="133" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A79" s="132"/>
@@ -5524,10 +5524,10 @@
       <c r="B91" s="139"/>
     </row>
     <row r="92" spans="1:2" s="128" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="289" t="s">
+      <c r="A92" s="281" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="289"/>
+      <c r="B92" s="281"/>
     </row>
     <row r="93" spans="1:2" s="137" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B93" s="139"/>
@@ -5536,10 +5536,10 @@
       <c r="B94" s="139"/>
     </row>
     <row r="95" spans="1:2" s="137" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="287" t="s">
+      <c r="A95" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="B95" s="288"/>
+      <c r="B95" s="280"/>
     </row>
     <row r="96" spans="1:2" s="141" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A96" s="140"/>
@@ -6289,6 +6289,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IHujotv3v3RWv3h+RXEpGvtkzzhtlHexoM5FFqaboenm3VwCg6LpOkLBsozDsHRKN7m1ssFLfOcmzueCaCtC8w==" saltValue="9nB5tIc5dBH1oL+6MSywtw==" spinCount="100000" sheet="1" scenarios="1"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A5:B5"/>
@@ -6296,11 +6301,6 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A78:B78"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
@@ -6342,10 +6342,10 @@
   <dimension ref="A1:AG98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F84" sqref="F84:G85"/>
+      <selection pane="bottomRight" activeCell="P79" sqref="P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6369,29 +6369,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="299" t="str">
+      <c r="A1" s="309" t="str">
         <f>Instructions!B7</f>
         <v>PLEASE ENTER YOUR NAME HERE</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
-      <c r="J1" s="299"/>
-      <c r="K1" s="299"/>
-      <c r="L1" s="299"/>
-      <c r="M1" s="299"/>
-      <c r="N1" s="299"/>
-      <c r="O1" s="299"/>
-      <c r="P1" s="299"/>
-      <c r="Q1" s="299"/>
-      <c r="R1" s="299"/>
-      <c r="S1" s="299"/>
-      <c r="T1" s="299"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="309"/>
+      <c r="O1" s="309"/>
+      <c r="P1" s="309"/>
+      <c r="Q1" s="309"/>
+      <c r="R1" s="309"/>
+      <c r="S1" s="309"/>
+      <c r="T1" s="309"/>
     </row>
     <row r="2" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="198" t="s">
@@ -6450,7 +6450,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="307" t="s">
+      <c r="A3" s="299" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="199" t="s">
@@ -6499,16 +6499,16 @@
         <f t="shared" ref="P3:P26" si="0">SUM(D3:O3)</f>
         <v>120000</v>
       </c>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="298"/>
+      <c r="Q3" s="310"/>
+      <c r="R3" s="311"/>
+      <c r="S3" s="312"/>
       <c r="T3" s="1">
         <f t="shared" ref="T3:T27" si="1">SUM(P3:S3)</f>
         <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="307"/>
+      <c r="A4" s="299"/>
       <c r="B4" s="200" t="s">
         <v>1</v>
       </c>
@@ -6555,16 +6555,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="297"/>
-      <c r="S4" s="298"/>
+      <c r="Q4" s="310"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="312"/>
       <c r="T4" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="307"/>
+      <c r="A5" s="299"/>
       <c r="B5" s="200" t="s">
         <v>2</v>
       </c>
@@ -6611,16 +6611,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="296"/>
-      <c r="R5" s="297"/>
-      <c r="S5" s="298"/>
+      <c r="Q5" s="310"/>
+      <c r="R5" s="311"/>
+      <c r="S5" s="312"/>
       <c r="T5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="307"/>
+      <c r="A6" s="299"/>
       <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
@@ -6667,16 +6667,16 @@
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="297"/>
-      <c r="S6" s="298"/>
+      <c r="Q6" s="310"/>
+      <c r="R6" s="311"/>
+      <c r="S6" s="312"/>
       <c r="T6" s="1">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="307"/>
+      <c r="A7" s="299"/>
       <c r="B7" s="200" t="s">
         <v>4</v>
       </c>
@@ -6723,16 +6723,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="296"/>
-      <c r="R7" s="297"/>
-      <c r="S7" s="298"/>
+      <c r="Q7" s="310"/>
+      <c r="R7" s="311"/>
+      <c r="S7" s="312"/>
       <c r="T7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="307"/>
+      <c r="A8" s="299"/>
       <c r="B8" s="200" t="s">
         <v>5</v>
       </c>
@@ -6779,16 +6779,16 @@
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="Q8" s="296"/>
-      <c r="R8" s="297"/>
-      <c r="S8" s="298"/>
+      <c r="Q8" s="310"/>
+      <c r="R8" s="311"/>
+      <c r="S8" s="312"/>
       <c r="T8" s="1">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="307"/>
+      <c r="A9" s="299"/>
       <c r="B9" s="200" t="s">
         <v>6</v>
       </c>
@@ -6835,16 +6835,16 @@
         <f t="shared" si="0"/>
         <v>19200</v>
       </c>
-      <c r="Q9" s="296"/>
-      <c r="R9" s="297"/>
-      <c r="S9" s="298"/>
+      <c r="Q9" s="310"/>
+      <c r="R9" s="311"/>
+      <c r="S9" s="312"/>
       <c r="T9" s="1">
         <f t="shared" si="1"/>
         <v>19200</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="307"/>
+      <c r="A10" s="299"/>
       <c r="B10" s="200" t="s">
         <v>249</v>
       </c>
@@ -6891,16 +6891,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="296"/>
-      <c r="R10" s="297"/>
-      <c r="S10" s="298"/>
+      <c r="Q10" s="310"/>
+      <c r="R10" s="311"/>
+      <c r="S10" s="312"/>
       <c r="T10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="307"/>
+      <c r="A11" s="299"/>
       <c r="B11" s="201" t="s">
         <v>7</v>
       </c>
@@ -6908,55 +6908,55 @@
         <v>33</v>
       </c>
       <c r="D11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="E11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="F11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="G11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="H11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="I11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="J11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="K11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="L11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="M11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="N11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="O11" s="145">
-        <v>13684</v>
+        <v>12684</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="0"/>
-        <v>164208</v>
-      </c>
-      <c r="Q11" s="296"/>
-      <c r="R11" s="297"/>
-      <c r="S11" s="298"/>
+        <v>152208</v>
+      </c>
+      <c r="Q11" s="310"/>
+      <c r="R11" s="311"/>
+      <c r="S11" s="312"/>
       <c r="T11" s="1">
         <f t="shared" si="1"/>
-        <v>164208</v>
+        <v>152208</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="307"/>
+      <c r="A12" s="299"/>
       <c r="B12" s="201" t="s">
         <v>7</v>
       </c>
@@ -7003,16 +7003,16 @@
         <f t="shared" si="0"/>
         <v>43800</v>
       </c>
-      <c r="Q12" s="296"/>
-      <c r="R12" s="297"/>
-      <c r="S12" s="298"/>
+      <c r="Q12" s="310"/>
+      <c r="R12" s="311"/>
+      <c r="S12" s="312"/>
       <c r="T12" s="1">
         <f t="shared" si="1"/>
         <v>43800</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="307"/>
+      <c r="A13" s="299"/>
       <c r="B13" s="201" t="s">
         <v>7</v>
       </c>
@@ -7059,16 +7059,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="296"/>
-      <c r="R13" s="297"/>
-      <c r="S13" s="298"/>
+      <c r="Q13" s="310"/>
+      <c r="R13" s="311"/>
+      <c r="S13" s="312"/>
       <c r="T13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="307"/>
+      <c r="A14" s="299"/>
       <c r="B14" s="201" t="s">
         <v>7</v>
       </c>
@@ -7115,16 +7115,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="296"/>
-      <c r="R14" s="297"/>
-      <c r="S14" s="298"/>
+      <c r="Q14" s="310"/>
+      <c r="R14" s="311"/>
+      <c r="S14" s="312"/>
       <c r="T14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="307"/>
+      <c r="A15" s="299"/>
       <c r="B15" s="201" t="s">
         <v>7</v>
       </c>
@@ -7171,16 +7171,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="296"/>
-      <c r="R15" s="297"/>
-      <c r="S15" s="298"/>
+      <c r="Q15" s="310"/>
+      <c r="R15" s="311"/>
+      <c r="S15" s="312"/>
       <c r="T15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="307"/>
+      <c r="A16" s="299"/>
       <c r="B16" s="201" t="s">
         <v>7</v>
       </c>
@@ -7227,16 +7227,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="296"/>
-      <c r="R16" s="297"/>
-      <c r="S16" s="298"/>
+      <c r="Q16" s="310"/>
+      <c r="R16" s="311"/>
+      <c r="S16" s="312"/>
       <c r="T16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="307"/>
+      <c r="A17" s="299"/>
       <c r="B17" s="201" t="s">
         <v>7</v>
       </c>
@@ -7283,16 +7283,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="296"/>
-      <c r="R17" s="297"/>
-      <c r="S17" s="298"/>
+      <c r="Q17" s="310"/>
+      <c r="R17" s="311"/>
+      <c r="S17" s="312"/>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="307"/>
+      <c r="A18" s="299"/>
       <c r="B18" s="201" t="s">
         <v>7</v>
       </c>
@@ -7339,16 +7339,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="296"/>
-      <c r="R18" s="297"/>
-      <c r="S18" s="298"/>
+      <c r="Q18" s="310"/>
+      <c r="R18" s="311"/>
+      <c r="S18" s="312"/>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="307"/>
+      <c r="A19" s="299"/>
       <c r="B19" s="201" t="s">
         <v>7</v>
       </c>
@@ -7395,16 +7395,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="296"/>
-      <c r="R19" s="297"/>
-      <c r="S19" s="298"/>
+      <c r="Q19" s="310"/>
+      <c r="R19" s="311"/>
+      <c r="S19" s="312"/>
       <c r="T19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="307"/>
+      <c r="A20" s="299"/>
       <c r="B20" s="201" t="s">
         <v>7</v>
       </c>
@@ -7451,71 +7451,71 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="296"/>
-      <c r="R20" s="297"/>
-      <c r="S20" s="298"/>
+      <c r="Q20" s="310"/>
+      <c r="R20" s="311"/>
+      <c r="S20" s="312"/>
       <c r="T20" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="307"/>
+      <c r="A21" s="299"/>
       <c r="B21" s="202" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="2">
         <f t="shared" ref="D21:O21" si="2">SUM(D3:D20)</f>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>75334</v>
+        <v>74334</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="2"/>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="2"/>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="2"/>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="2"/>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="2"/>
-        <v>31534</v>
+        <v>30534</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="0"/>
-        <v>422208</v>
+        <v>410208</v>
       </c>
       <c r="Q21" s="257">
         <f>MAX(Perquisites!K53+MAX((P41-P95),0),0)</f>
@@ -7529,11 +7529,11 @@
       </c>
       <c r="T21" s="1">
         <f t="shared" si="1"/>
-        <v>422208</v>
+        <v>410208</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="307" t="s">
+      <c r="A22" s="299" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="202" t="s">
@@ -7580,16 +7580,16 @@
         <f t="shared" si="0"/>
         <v>2196</v>
       </c>
-      <c r="Q22" s="296"/>
-      <c r="R22" s="297"/>
-      <c r="S22" s="298"/>
+      <c r="Q22" s="310"/>
+      <c r="R22" s="311"/>
+      <c r="S22" s="312"/>
       <c r="T22" s="1">
         <f t="shared" si="1"/>
         <v>2196</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="307"/>
+      <c r="A23" s="299"/>
       <c r="B23" s="202" t="s">
         <v>9</v>
       </c>
@@ -7657,7 +7657,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="307"/>
+      <c r="A24" s="299"/>
       <c r="B24" s="202" t="s">
         <v>10</v>
       </c>
@@ -7725,7 +7725,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="307"/>
+      <c r="A25" s="299"/>
       <c r="B25" s="202" t="s">
         <v>11</v>
       </c>
@@ -7765,50 +7765,50 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="307"/>
+      <c r="A26" s="299"/>
       <c r="B26" s="202" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="E26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="F26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="G26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="H26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="I26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="J26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="K26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="L26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="M26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="N26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="O26" s="145">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="0"/>
-        <v>99600</v>
+        <v>84000</v>
       </c>
       <c r="Q26" s="145">
         <v>0</v>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="T26" s="1">
         <f t="shared" si="1"/>
-        <v>99600</v>
+        <v>84000</v>
       </c>
       <c r="U26" s="159" t="str">
         <f>IF(AND(P26&lt;&gt;0,SUM(Q25:S26)&lt;&gt;0),"ERROR! Enter only one set: D26-O26 or Q26-S26; not both","")</f>
@@ -7829,7 +7829,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="307"/>
+      <c r="A27" s="299"/>
       <c r="B27" s="202" t="s">
         <v>13</v>
       </c>
@@ -7874,16 +7874,16 @@
         <f t="shared" ref="P27:P38" si="5">SUM(D27:O27)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="296"/>
-      <c r="R27" s="297"/>
-      <c r="S27" s="298"/>
+      <c r="Q27" s="310"/>
+      <c r="R27" s="311"/>
+      <c r="S27" s="312"/>
       <c r="T27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="307"/>
+      <c r="A28" s="299"/>
       <c r="B28" s="203" t="s">
         <v>14</v>
       </c>
@@ -7928,16 +7928,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="296"/>
-      <c r="R28" s="297"/>
-      <c r="S28" s="298"/>
+      <c r="Q28" s="310"/>
+      <c r="R28" s="311"/>
+      <c r="S28" s="312"/>
       <c r="T28" s="1">
         <f t="shared" ref="T28:T38" si="6">SUM(P28:S28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="307"/>
+      <c r="A29" s="299"/>
       <c r="B29" s="203" t="s">
         <v>14</v>
       </c>
@@ -7982,16 +7982,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="296"/>
-      <c r="R29" s="297"/>
-      <c r="S29" s="298"/>
+      <c r="Q29" s="310"/>
+      <c r="R29" s="311"/>
+      <c r="S29" s="312"/>
       <c r="T29" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="307"/>
+      <c r="A30" s="299"/>
       <c r="B30" s="203" t="s">
         <v>14</v>
       </c>
@@ -8036,16 +8036,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="296"/>
-      <c r="R30" s="297"/>
-      <c r="S30" s="298"/>
+      <c r="Q30" s="310"/>
+      <c r="R30" s="311"/>
+      <c r="S30" s="312"/>
       <c r="T30" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="307"/>
+      <c r="A31" s="299"/>
       <c r="B31" s="203" t="s">
         <v>14</v>
       </c>
@@ -8090,16 +8090,16 @@
         <f>SUM(D31:O31)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="296"/>
-      <c r="R31" s="297"/>
-      <c r="S31" s="298"/>
+      <c r="Q31" s="310"/>
+      <c r="R31" s="311"/>
+      <c r="S31" s="312"/>
       <c r="T31" s="1">
         <f>SUM(P31:S31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="307"/>
+      <c r="A32" s="299"/>
       <c r="B32" s="203" t="s">
         <v>14</v>
       </c>
@@ -8144,16 +8144,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="296"/>
-      <c r="R32" s="297"/>
-      <c r="S32" s="298"/>
+      <c r="Q32" s="310"/>
+      <c r="R32" s="311"/>
+      <c r="S32" s="312"/>
       <c r="T32" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="307"/>
+      <c r="A33" s="299"/>
       <c r="B33" s="203" t="s">
         <v>14</v>
       </c>
@@ -8198,16 +8198,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="296"/>
-      <c r="R33" s="297"/>
-      <c r="S33" s="298"/>
+      <c r="Q33" s="310"/>
+      <c r="R33" s="311"/>
+      <c r="S33" s="312"/>
       <c r="T33" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="307"/>
+      <c r="A34" s="299"/>
       <c r="B34" s="203" t="s">
         <v>14</v>
       </c>
@@ -8252,16 +8252,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="296"/>
-      <c r="R34" s="297"/>
-      <c r="S34" s="298"/>
+      <c r="Q34" s="310"/>
+      <c r="R34" s="311"/>
+      <c r="S34" s="312"/>
       <c r="T34" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="307"/>
+      <c r="A35" s="299"/>
       <c r="B35" s="203" t="s">
         <v>14</v>
       </c>
@@ -8306,16 +8306,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="296"/>
-      <c r="R35" s="297"/>
-      <c r="S35" s="298"/>
+      <c r="Q35" s="310"/>
+      <c r="R35" s="311"/>
+      <c r="S35" s="312"/>
       <c r="T35" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="307"/>
+      <c r="A36" s="299"/>
       <c r="B36" s="203" t="s">
         <v>14</v>
       </c>
@@ -8360,78 +8360,78 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="296"/>
-      <c r="R36" s="297"/>
-      <c r="S36" s="298"/>
+      <c r="Q36" s="310"/>
+      <c r="R36" s="311"/>
+      <c r="S36" s="312"/>
       <c r="T36" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="307"/>
+      <c r="A37" s="299"/>
       <c r="B37" s="202" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="4">
         <f t="shared" ref="D37:O37" si="7">SUM(D22:D36)</f>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="M37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="N37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="O37" s="4">
         <f t="shared" si="7"/>
-        <v>9683</v>
+        <v>8383</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="5"/>
-        <v>116196</v>
-      </c>
-      <c r="Q37" s="296"/>
-      <c r="R37" s="297"/>
-      <c r="S37" s="298"/>
+        <v>100596</v>
+      </c>
+      <c r="Q37" s="310"/>
+      <c r="R37" s="311"/>
+      <c r="S37" s="312"/>
       <c r="T37" s="1">
         <f t="shared" si="6"/>
-        <v>116196</v>
+        <v>100596</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -8442,66 +8442,66 @@
       <c r="C38" s="33"/>
       <c r="D38" s="2">
         <f t="shared" ref="D38:O38" si="8">D21-D37</f>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="8"/>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="8"/>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
-        <v>65651</v>
+        <v>65951</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="8"/>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="8"/>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="8"/>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="8"/>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="8"/>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="8"/>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="8"/>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="8"/>
-        <v>21851</v>
+        <v>22151</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="5"/>
-        <v>306012</v>
-      </c>
-      <c r="Q38" s="296"/>
-      <c r="R38" s="297"/>
-      <c r="S38" s="298"/>
+        <v>309612</v>
+      </c>
+      <c r="Q38" s="310"/>
+      <c r="R38" s="311"/>
+      <c r="S38" s="312"/>
       <c r="T38" s="1">
         <f t="shared" si="6"/>
-        <v>306012</v>
+        <v>309612</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="307" t="s">
+      <c r="A39" s="299" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="206" t="s">
@@ -8551,7 +8551,7 @@
       <c r="T39" s="36"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="307"/>
+      <c r="A40" s="299"/>
       <c r="B40" s="199" t="s">
         <v>36</v>
       </c>
@@ -8613,7 +8613,7 @@
       <c r="T40" s="39"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="307"/>
+      <c r="A41" s="299"/>
       <c r="B41" s="202" t="s">
         <v>37</v>
       </c>
@@ -8676,7 +8676,7 @@
       <c r="T41" s="39"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="307"/>
+      <c r="A42" s="299"/>
       <c r="B42" s="202" t="s">
         <v>38</v>
       </c>
@@ -9023,15 +9023,15 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="314" t="s">
+      <c r="A50" s="306" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="315"/>
-      <c r="C50" s="315"/>
-      <c r="D50" s="315"/>
-      <c r="E50" s="315"/>
-      <c r="F50" s="315"/>
-      <c r="G50" s="316"/>
+      <c r="B50" s="307"/>
+      <c r="C50" s="307"/>
+      <c r="D50" s="307"/>
+      <c r="E50" s="307"/>
+      <c r="F50" s="307"/>
+      <c r="G50" s="308"/>
       <c r="I50" s="8" t="s">
         <v>46</v>
       </c>
@@ -9066,7 +9066,7 @@
       <c r="F51" s="222"/>
       <c r="G51" s="243">
         <f>T21</f>
-        <v>422208</v>
+        <v>410208</v>
       </c>
       <c r="I51" s="248" t="s">
         <v>352</v>
@@ -9077,7 +9077,7 @@
       <c r="M51" s="229"/>
       <c r="N51" s="214">
         <f>T26</f>
-        <v>99600</v>
+        <v>84000</v>
       </c>
       <c r="O51" s="214">
         <f>IF(P93=0,MAX(MIN((T3+T4)*$AA$52,T26-(T3+T4)*10%,T6),0),P93)</f>
@@ -9194,7 +9194,7 @@
       <c r="F54" s="246"/>
       <c r="G54" s="247">
         <f>MAX(G51-G52-G53,0)</f>
-        <v>357012</v>
+        <v>345012</v>
       </c>
       <c r="I54" s="248" t="s">
         <v>355</v>
@@ -9295,7 +9295,7 @@
       <c r="F56" s="251"/>
       <c r="G56" s="252">
         <f>SUM(G54:G55)</f>
-        <v>357012</v>
+        <v>345012</v>
       </c>
       <c r="I56" s="248" t="s">
         <v>356</v>
@@ -9344,7 +9344,7 @@
       <c r="F57" s="222"/>
       <c r="G57" s="243">
         <f>O60-O61</f>
-        <v>-200000</v>
+        <v>0</v>
       </c>
       <c r="I57" s="248" t="s">
         <v>357</v>
@@ -9504,7 +9504,7 @@
       <c r="F61" s="251"/>
       <c r="G61" s="252">
         <f>MAX(SUM(G56:G60),0)</f>
-        <v>157012</v>
+        <v>345012</v>
       </c>
       <c r="I61" s="248" t="s">
         <v>71</v>
@@ -9513,12 +9513,10 @@
       <c r="K61" s="228"/>
       <c r="L61" s="228"/>
       <c r="M61" s="229"/>
-      <c r="N61" s="145">
-        <v>305760</v>
-      </c>
+      <c r="N61" s="145"/>
       <c r="O61" s="214">
         <f>IF(AA60="N",N61,IF(AA61="N",MIN(IF(N61="",0,N61),30000),MIN(IF(N61="",0,N61),200000+IF(AA62="Y",50000,0))))</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="U61" s="220" t="s">
         <v>89</v>
@@ -9596,7 +9594,7 @@
       <c r="F63" s="222"/>
       <c r="G63" s="243">
         <f>O86</f>
-        <v>150000</v>
+        <v>62400</v>
       </c>
       <c r="I63" s="248" t="s">
         <v>439</v>
@@ -9633,7 +9631,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="253">
         <f>ROUND(MAX(G61-SUM(G62:G63),0),-1)</f>
-        <v>7010</v>
+        <v>282610</v>
       </c>
       <c r="I64" s="248" t="s">
         <v>347</v>
@@ -9750,11 +9748,11 @@
       </c>
       <c r="E67" s="214">
         <f>MIN(G64,AG54)</f>
-        <v>7010</v>
+        <v>250000</v>
       </c>
       <c r="F67" s="215">
         <f>G64-E67</f>
-        <v>0</v>
+        <v>32610</v>
       </c>
       <c r="G67" s="214">
         <f>D67*E67</f>
@@ -9798,7 +9796,7 @@
       </c>
       <c r="E68" s="214">
         <f>MIN(F67,AG55)</f>
-        <v>0</v>
+        <v>32610</v>
       </c>
       <c r="F68" s="215">
         <f>F67-E68</f>
@@ -9806,7 +9804,7 @@
       </c>
       <c r="G68" s="214">
         <f>D68*E68</f>
-        <v>0</v>
+        <v>3261</v>
       </c>
       <c r="I68" s="248" t="s">
         <v>349</v>
@@ -9938,7 +9936,7 @@
       <c r="F71" s="222"/>
       <c r="G71" s="243">
         <f>MIN(IF(G64&lt;=500000,5000,0),G68)</f>
-        <v>0</v>
+        <v>3261</v>
       </c>
       <c r="H71" s="152"/>
       <c r="I71" s="248" t="s">
@@ -10160,11 +10158,11 @@
       <c r="L78" s="228"/>
       <c r="M78" s="229"/>
       <c r="N78" s="145">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="O78" s="214">
         <f>MIN(IF(N78="",0,N78),200000)</f>
-        <v>0</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
@@ -10188,11 +10186,11 @@
       <c r="L79" s="228"/>
       <c r="M79" s="229"/>
       <c r="N79" s="145">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="O79" s="214">
         <f>MIN(IF(N79="",0,N79),150000)</f>
-        <v>0</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
@@ -10286,28 +10284,26 @@
       <c r="K83" s="228"/>
       <c r="L83" s="228"/>
       <c r="M83" s="229"/>
-      <c r="N83" s="145">
-        <v>87348</v>
-      </c>
+      <c r="N83" s="145"/>
       <c r="O83" s="214">
         <f>MIN(IF(N83="",0,N83),150000)</f>
-        <v>87348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="308" t="str">
+      <c r="A84" s="300" t="str">
         <f>IF(G81&lt;0,"Tax refund",IF(OR(G82=1,G82="",G81=0),"Balance Tax payable","Tax per Month"))</f>
         <v>Balance Tax payable</v>
       </c>
-      <c r="B84" s="309"/>
-      <c r="C84" s="309"/>
-      <c r="D84" s="309"/>
-      <c r="E84" s="310"/>
-      <c r="F84" s="300">
+      <c r="B84" s="301"/>
+      <c r="C84" s="301"/>
+      <c r="D84" s="301"/>
+      <c r="E84" s="302"/>
+      <c r="F84" s="313">
         <f>IF(G81&gt;0,G81/IF(G82="",1,G82),G81)</f>
         <v>0</v>
       </c>
-      <c r="G84" s="301"/>
+      <c r="G84" s="314"/>
       <c r="I84" s="248" t="s">
         <v>414</v>
       </c>
@@ -10315,22 +10311,20 @@
       <c r="K84" s="228"/>
       <c r="L84" s="228"/>
       <c r="M84" s="229"/>
-      <c r="N84" s="145">
-        <v>79000</v>
-      </c>
+      <c r="N84" s="145"/>
       <c r="O84" s="214">
         <f>MIN(N84+T27,150000)</f>
-        <v>79000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="311"/>
-      <c r="B85" s="312"/>
-      <c r="C85" s="312"/>
-      <c r="D85" s="312"/>
-      <c r="E85" s="313"/>
-      <c r="F85" s="302"/>
-      <c r="G85" s="303"/>
+      <c r="A85" s="303"/>
+      <c r="B85" s="304"/>
+      <c r="C85" s="304"/>
+      <c r="D85" s="304"/>
+      <c r="E85" s="305"/>
+      <c r="F85" s="315"/>
+      <c r="G85" s="316"/>
       <c r="I85" s="248" t="s">
         <v>304</v>
       </c>
@@ -10365,7 +10359,7 @@
       <c r="N86" s="252"/>
       <c r="O86" s="252">
         <f>MIN(MIN(SUM(O79:O84),150000)+O78,200000)+O85</f>
-        <v>150000</v>
+        <v>62400</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="2.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10601,7 +10595,7 @@
       </c>
     </row>
     <row r="94" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="304" t="s">
+      <c r="A94" s="296" t="s">
         <v>141</v>
       </c>
       <c r="B94" s="19" t="s">
@@ -10661,7 +10655,7 @@
       </c>
     </row>
     <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="305"/>
+      <c r="A95" s="297"/>
       <c r="B95" s="19" t="s">
         <v>37</v>
       </c>
@@ -10719,7 +10713,7 @@
       </c>
     </row>
     <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="306"/>
+      <c r="A96" s="298"/>
       <c r="B96" s="19" t="s">
         <v>38</v>
       </c>
@@ -10892,12 +10886,23 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y9P6THnYZ5MFQYsozxIvHgauL1x+0LArfDjyQ/5hWBgmgCFLoVMAekHxlz0tDzWEY3Jb6It05vQDBe9K94vhHQ==" saltValue="wxt8xUmJ3n+JhdR12Yndxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="39">
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A84:E85"/>
-    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q30:S30"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="Q16:S16"/>
     <mergeCell ref="Q3:S3"/>
@@ -10914,23 +10919,12 @@
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="Q12:S12"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A84:E85"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B28:B36">
@@ -16170,33 +16164,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="340" t="str">
+      <c r="A1" s="338" t="str">
         <f>Instructions!B7</f>
         <v>PLEASE ENTER YOUR NAME HERE</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="337" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
       <c r="P2" s="89" t="s">
         <v>237</v>
       </c>
@@ -16205,18 +16199,18 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="339" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="342"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342"/>
-      <c r="H3" s="342"/>
-      <c r="I3" s="342"/>
-      <c r="J3" s="342"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
       <c r="P3" s="89" t="s">
         <v>236</v>
       </c>
@@ -16235,26 +16229,26 @@
       <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="348" t="s">
+      <c r="A5" s="346" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="347" t="s">
+      <c r="B5" s="345" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="346" t="s">
+      <c r="C5" s="344" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="346" t="s">
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="344" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="346"/>
-      <c r="H5" s="346"/>
-      <c r="I5" s="347" t="s">
+      <c r="G5" s="344"/>
+      <c r="H5" s="344"/>
+      <c r="I5" s="345" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="345" t="s">
+      <c r="J5" s="343" t="s">
         <v>227</v>
       </c>
       <c r="P5" s="89" t="s">
@@ -16266,8 +16260,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="348"/>
-      <c r="B6" s="347"/>
+      <c r="A6" s="346"/>
+      <c r="B6" s="345"/>
       <c r="C6" s="273" t="s">
         <v>220</v>
       </c>
@@ -16286,8 +16280,8 @@
       <c r="H6" s="273" t="s">
         <v>221</v>
       </c>
-      <c r="I6" s="347"/>
-      <c r="J6" s="346"/>
+      <c r="I6" s="345"/>
+      <c r="J6" s="344"/>
       <c r="L6" s="160" t="s">
         <v>242</v>
       </c>
@@ -19907,21 +19901,21 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25"/>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="337" t="s">
+      <c r="A128" s="352" t="s">
         <v>244</v>
       </c>
-      <c r="B128" s="337"/>
-      <c r="C128" s="337"/>
-      <c r="D128" s="337"/>
-      <c r="E128" s="337"/>
-      <c r="F128" s="337"/>
-      <c r="G128" s="337"/>
-      <c r="H128" s="337"/>
-      <c r="I128" s="351">
+      <c r="B128" s="352"/>
+      <c r="C128" s="352"/>
+      <c r="D128" s="352"/>
+      <c r="E128" s="352"/>
+      <c r="F128" s="352"/>
+      <c r="G128" s="352"/>
+      <c r="H128" s="352"/>
+      <c r="I128" s="349">
         <f>M128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="352"/>
+      <c r="J128" s="350"/>
       <c r="K128" s="167"/>
       <c r="L128" s="162">
         <f>SUM(L7:L126)</f>
@@ -19933,72 +19927,72 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="337" t="s">
+      <c r="A129" s="352" t="s">
         <v>245</v>
       </c>
-      <c r="B129" s="337"/>
-      <c r="C129" s="337"/>
-      <c r="D129" s="337"/>
-      <c r="E129" s="337"/>
-      <c r="F129" s="337"/>
-      <c r="G129" s="337"/>
-      <c r="H129" s="337"/>
-      <c r="I129" s="351">
+      <c r="B129" s="352"/>
+      <c r="C129" s="352"/>
+      <c r="D129" s="352"/>
+      <c r="E129" s="352"/>
+      <c r="F129" s="352"/>
+      <c r="G129" s="352"/>
+      <c r="H129" s="352"/>
+      <c r="I129" s="349">
         <f>L128</f>
         <v>0</v>
       </c>
-      <c r="J129" s="352"/>
+      <c r="J129" s="350"/>
       <c r="K129" s="167"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="337" t="s">
+      <c r="A130" s="352" t="s">
         <v>246</v>
       </c>
-      <c r="B130" s="337"/>
-      <c r="C130" s="337"/>
-      <c r="D130" s="337"/>
-      <c r="E130" s="337"/>
-      <c r="F130" s="337"/>
-      <c r="G130" s="337"/>
-      <c r="H130" s="337"/>
-      <c r="I130" s="351">
+      <c r="B130" s="352"/>
+      <c r="C130" s="352"/>
+      <c r="D130" s="352"/>
+      <c r="E130" s="352"/>
+      <c r="F130" s="352"/>
+      <c r="G130" s="352"/>
+      <c r="H130" s="352"/>
+      <c r="I130" s="349">
         <f>IF(I128&gt;=0,I128,IF(I129&gt;0,I128+MIN(I129,ABS(I128)),I128))</f>
         <v>0</v>
       </c>
-      <c r="J130" s="352"/>
+      <c r="J130" s="350"/>
       <c r="K130" s="167"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:11" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="344" t="s">
+      <c r="A132" s="342" t="s">
         <v>239</v>
       </c>
-      <c r="B132" s="344"/>
-      <c r="C132" s="344"/>
-      <c r="D132" s="344"/>
-      <c r="E132" s="344"/>
-      <c r="F132" s="344"/>
-      <c r="G132" s="344"/>
-      <c r="H132" s="344"/>
-      <c r="I132" s="343">
+      <c r="B132" s="342"/>
+      <c r="C132" s="342"/>
+      <c r="D132" s="342"/>
+      <c r="E132" s="342"/>
+      <c r="F132" s="342"/>
+      <c r="G132" s="342"/>
+      <c r="H132" s="342"/>
+      <c r="I132" s="341">
         <f>MAX(I130*$Q$3,0)</f>
         <v>0</v>
       </c>
-      <c r="J132" s="343"/>
+      <c r="J132" s="341"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="349" t="s">
+      <c r="A133" s="347" t="s">
         <v>437</v>
       </c>
-      <c r="B133" s="350"/>
-      <c r="C133" s="350"/>
-      <c r="D133" s="350"/>
-      <c r="E133" s="350"/>
-      <c r="F133" s="350"/>
-      <c r="G133" s="350"/>
-      <c r="H133" s="350"/>
-      <c r="I133" s="350"/>
-      <c r="J133" s="350"/>
+      <c r="B133" s="348"/>
+      <c r="C133" s="348"/>
+      <c r="D133" s="348"/>
+      <c r="E133" s="348"/>
+      <c r="F133" s="348"/>
+      <c r="G133" s="348"/>
+      <c r="H133" s="348"/>
+      <c r="I133" s="348"/>
+      <c r="J133" s="348"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B134" s="102"/>
@@ -20016,46 +20010,46 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="336" t="s">
+      <c r="A136" s="351" t="s">
         <v>228</v>
       </c>
-      <c r="B136" s="336"/>
-      <c r="C136" s="336"/>
-      <c r="D136" s="336"/>
-      <c r="E136" s="336"/>
-      <c r="F136" s="336"/>
-      <c r="G136" s="336"/>
-      <c r="H136" s="336"/>
-      <c r="I136" s="336"/>
-      <c r="J136" s="336"/>
+      <c r="B136" s="351"/>
+      <c r="C136" s="351"/>
+      <c r="D136" s="351"/>
+      <c r="E136" s="351"/>
+      <c r="F136" s="351"/>
+      <c r="G136" s="351"/>
+      <c r="H136" s="351"/>
+      <c r="I136" s="351"/>
+      <c r="J136" s="351"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="335" t="s">
+      <c r="A137" s="336" t="s">
         <v>248</v>
       </c>
-      <c r="B137" s="335"/>
-      <c r="C137" s="335"/>
-      <c r="D137" s="335"/>
-      <c r="E137" s="335"/>
-      <c r="F137" s="335"/>
-      <c r="G137" s="335"/>
-      <c r="H137" s="335"/>
-      <c r="I137" s="335"/>
-      <c r="J137" s="335"/>
+      <c r="B137" s="336"/>
+      <c r="C137" s="336"/>
+      <c r="D137" s="336"/>
+      <c r="E137" s="336"/>
+      <c r="F137" s="336"/>
+      <c r="G137" s="336"/>
+      <c r="H137" s="336"/>
+      <c r="I137" s="336"/>
+      <c r="J137" s="336"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="338" t="s">
+      <c r="A138" s="335" t="s">
         <v>293</v>
       </c>
-      <c r="B138" s="335"/>
-      <c r="C138" s="335"/>
-      <c r="D138" s="335"/>
-      <c r="E138" s="335"/>
-      <c r="F138" s="335"/>
-      <c r="G138" s="335"/>
-      <c r="H138" s="335"/>
-      <c r="I138" s="335"/>
-      <c r="J138" s="335"/>
+      <c r="B138" s="336"/>
+      <c r="C138" s="336"/>
+      <c r="D138" s="336"/>
+      <c r="E138" s="336"/>
+      <c r="F138" s="336"/>
+      <c r="G138" s="336"/>
+      <c r="H138" s="336"/>
+      <c r="I138" s="336"/>
+      <c r="J138" s="336"/>
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="84"/>
@@ -20277,6 +20271,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FX6zskbqCKvU3czgLvk6zfMg5uBvD7oZz8KZbyoh28Y0fwp+mwnxP+xMzLRkW2CXN9kXBlVmRCxxb9dLnMjSXQ==" saltValue="dQl/5BQAsHS5dojFU377rw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="21">
+    <mergeCell ref="A137:J137"/>
+    <mergeCell ref="A136:J136"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A130:H130"/>
     <mergeCell ref="A138:J138"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A1:J1"/>
@@ -20293,11 +20292,6 @@
     <mergeCell ref="I128:J128"/>
     <mergeCell ref="I129:J129"/>
     <mergeCell ref="I130:J130"/>
-    <mergeCell ref="A137:J137"/>
-    <mergeCell ref="A136:J136"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A129:H129"/>
-    <mergeCell ref="A130:H130"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1">
@@ -20360,29 +20354,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="340" t="str">
+      <c r="A1" s="338" t="str">
         <f>Instructions!B7</f>
         <v>PLEASE ENTER YOUR NAME HERE</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="337" t="s">
         <v>394</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
       <c r="N2" s="89" t="s">
         <v>237</v>
       </c>
@@ -20391,16 +20385,16 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="339" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342"/>
-      <c r="H3" s="342"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
       <c r="O3" s="158"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -20411,22 +20405,22 @@
       <c r="G4" s="104"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="361" t="s">
+      <c r="A5" s="355" t="s">
         <v>398</v>
       </c>
       <c r="B5" s="276"/>
-      <c r="C5" s="346" t="s">
+      <c r="C5" s="344" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346" t="s">
+      <c r="D5" s="344"/>
+      <c r="E5" s="344" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="346"/>
-      <c r="G5" s="347" t="s">
+      <c r="F5" s="344"/>
+      <c r="G5" s="345" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="345" t="s">
+      <c r="H5" s="343" t="s">
         <v>227</v>
       </c>
       <c r="N5" s="89" t="s">
@@ -20438,7 +20432,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="361"/>
+      <c r="A6" s="355"/>
       <c r="B6" s="277"/>
       <c r="C6" s="273" t="s">
         <v>220</v>
@@ -20452,8 +20446,8 @@
       <c r="F6" s="273" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="347"/>
-      <c r="H6" s="346"/>
+      <c r="G6" s="345"/>
+      <c r="H6" s="344"/>
       <c r="J6" s="160" t="s">
         <v>242</v>
       </c>
@@ -20472,8 +20466,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="359"/>
-      <c r="B7" s="360"/>
+      <c r="A7" s="353"/>
+      <c r="B7" s="354"/>
       <c r="C7" s="164"/>
       <c r="D7" s="166"/>
       <c r="E7" s="164"/>
@@ -20504,8 +20498,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="359"/>
-      <c r="B8" s="360"/>
+      <c r="A8" s="353"/>
+      <c r="B8" s="354"/>
       <c r="C8" s="164"/>
       <c r="D8" s="166"/>
       <c r="E8" s="164"/>
@@ -20536,8 +20530,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="359"/>
-      <c r="B9" s="360"/>
+      <c r="A9" s="353"/>
+      <c r="B9" s="354"/>
       <c r="C9" s="164"/>
       <c r="D9" s="166"/>
       <c r="E9" s="164"/>
@@ -20568,8 +20562,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="359"/>
-      <c r="B10" s="360"/>
+      <c r="A10" s="353"/>
+      <c r="B10" s="354"/>
       <c r="C10" s="164"/>
       <c r="D10" s="166"/>
       <c r="E10" s="164"/>
@@ -20600,8 +20594,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="359"/>
-      <c r="B11" s="360"/>
+      <c r="A11" s="353"/>
+      <c r="B11" s="354"/>
       <c r="C11" s="164"/>
       <c r="D11" s="166"/>
       <c r="E11" s="164"/>
@@ -20632,8 +20626,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="359"/>
-      <c r="B12" s="360"/>
+      <c r="A12" s="353"/>
+      <c r="B12" s="354"/>
       <c r="C12" s="164"/>
       <c r="D12" s="166"/>
       <c r="E12" s="164"/>
@@ -20665,19 +20659,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="337" t="s">
+      <c r="A14" s="352" t="s">
         <v>402</v>
       </c>
-      <c r="B14" s="337"/>
-      <c r="C14" s="337"/>
-      <c r="D14" s="337"/>
-      <c r="E14" s="337"/>
-      <c r="F14" s="337"/>
-      <c r="G14" s="351">
+      <c r="B14" s="352"/>
+      <c r="C14" s="352"/>
+      <c r="D14" s="352"/>
+      <c r="E14" s="352"/>
+      <c r="F14" s="352"/>
+      <c r="G14" s="349">
         <f>IF(K14&gt;=0,K14,L14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="352"/>
+      <c r="H14" s="350"/>
       <c r="I14" s="167"/>
       <c r="J14" s="162">
         <f>SUM(J7:J12)</f>
@@ -20693,19 +20687,19 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="337" t="s">
+      <c r="A15" s="352" t="s">
         <v>403</v>
       </c>
-      <c r="B15" s="337"/>
-      <c r="C15" s="337"/>
-      <c r="D15" s="337"/>
-      <c r="E15" s="337"/>
-      <c r="F15" s="337"/>
-      <c r="G15" s="351">
+      <c r="B15" s="352"/>
+      <c r="C15" s="352"/>
+      <c r="D15" s="352"/>
+      <c r="E15" s="352"/>
+      <c r="F15" s="352"/>
+      <c r="G15" s="349">
         <f>IF(K14&gt;=0,J14,L15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="352"/>
+      <c r="H15" s="350"/>
       <c r="I15" s="167"/>
       <c r="L15" s="192">
         <f>IF(J14&gt;0,J14-MIN(J14,ABS(K14)),J14)</f>
@@ -20714,41 +20708,41 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:15" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="353" t="s">
+      <c r="A17" s="357" t="s">
         <v>397</v>
       </c>
-      <c r="B17" s="354"/>
-      <c r="C17" s="354"/>
-      <c r="D17" s="354"/>
-      <c r="E17" s="354"/>
-      <c r="F17" s="355"/>
-      <c r="G17" s="356">
+      <c r="B17" s="358"/>
+      <c r="C17" s="358"/>
+      <c r="D17" s="358"/>
+      <c r="E17" s="358"/>
+      <c r="F17" s="359"/>
+      <c r="G17" s="360">
         <f>MAX(G15*O2,0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="357"/>
+      <c r="H17" s="361"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="349"/>
-      <c r="B18" s="350"/>
-      <c r="C18" s="350"/>
-      <c r="D18" s="350"/>
-      <c r="E18" s="350"/>
-      <c r="F18" s="350"/>
-      <c r="G18" s="350"/>
-      <c r="H18" s="350"/>
+      <c r="A18" s="347"/>
+      <c r="B18" s="348"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="348"/>
+      <c r="E18" s="348"/>
+      <c r="F18" s="348"/>
+      <c r="G18" s="348"/>
+      <c r="H18" s="348"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="339" t="s">
+      <c r="A19" s="337" t="s">
         <v>395</v>
       </c>
-      <c r="B19" s="339"/>
-      <c r="C19" s="339"/>
-      <c r="D19" s="339"/>
-      <c r="E19" s="339"/>
-      <c r="F19" s="339"/>
-      <c r="G19" s="339"/>
-      <c r="H19" s="339"/>
+      <c r="B19" s="337"/>
+      <c r="C19" s="337"/>
+      <c r="D19" s="337"/>
+      <c r="E19" s="337"/>
+      <c r="F19" s="337"/>
+      <c r="G19" s="337"/>
+      <c r="H19" s="337"/>
       <c r="N19" s="89" t="s">
         <v>237</v>
       </c>
@@ -20757,16 +20751,16 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="341" t="s">
+      <c r="A20" s="339" t="s">
         <v>396</v>
       </c>
-      <c r="B20" s="341"/>
-      <c r="C20" s="342"/>
-      <c r="D20" s="342"/>
-      <c r="E20" s="342"/>
-      <c r="F20" s="342"/>
-      <c r="G20" s="342"/>
-      <c r="H20" s="342"/>
+      <c r="B20" s="339"/>
+      <c r="C20" s="340"/>
+      <c r="D20" s="340"/>
+      <c r="E20" s="340"/>
+      <c r="F20" s="340"/>
+      <c r="G20" s="340"/>
+      <c r="H20" s="340"/>
       <c r="O20" s="158"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -20777,31 +20771,31 @@
       <c r="G21" s="104"/>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="348" t="s">
+      <c r="A22" s="346" t="s">
         <v>399</v>
       </c>
-      <c r="B22" s="347" t="s">
+      <c r="B22" s="345" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="346" t="s">
+      <c r="C22" s="344" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="346"/>
-      <c r="E22" s="346" t="s">
+      <c r="D22" s="344"/>
+      <c r="E22" s="344" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="346"/>
-      <c r="G22" s="347" t="s">
+      <c r="F22" s="344"/>
+      <c r="G22" s="345" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="345" t="s">
+      <c r="H22" s="343" t="s">
         <v>227</v>
       </c>
       <c r="O22" s="93"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="348"/>
-      <c r="B23" s="347"/>
+      <c r="A23" s="346"/>
+      <c r="B23" s="345"/>
       <c r="C23" s="273" t="s">
         <v>220</v>
       </c>
@@ -20814,8 +20808,8 @@
       <c r="F23" s="273" t="s">
         <v>221</v>
       </c>
-      <c r="G23" s="347"/>
-      <c r="H23" s="346"/>
+      <c r="G23" s="345"/>
+      <c r="H23" s="344"/>
       <c r="J23" s="160" t="s">
         <v>242</v>
       </c>
@@ -22109,19 +22103,19 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="337" t="s">
+      <c r="A65" s="352" t="s">
         <v>404</v>
       </c>
-      <c r="B65" s="337"/>
-      <c r="C65" s="337"/>
-      <c r="D65" s="337"/>
-      <c r="E65" s="337"/>
-      <c r="F65" s="337"/>
-      <c r="G65" s="351">
+      <c r="B65" s="352"/>
+      <c r="C65" s="352"/>
+      <c r="D65" s="352"/>
+      <c r="E65" s="352"/>
+      <c r="F65" s="352"/>
+      <c r="G65" s="349">
         <f>IF(K65&gt;=0,K65,L65)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="352"/>
+      <c r="H65" s="350"/>
       <c r="I65" s="167"/>
       <c r="J65" s="162">
         <f>SUM(J24:J63)</f>
@@ -22137,19 +22131,19 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="337" t="s">
+      <c r="A66" s="352" t="s">
         <v>405</v>
       </c>
-      <c r="B66" s="337"/>
-      <c r="C66" s="337"/>
-      <c r="D66" s="337"/>
-      <c r="E66" s="337"/>
-      <c r="F66" s="337"/>
-      <c r="G66" s="351">
+      <c r="B66" s="352"/>
+      <c r="C66" s="352"/>
+      <c r="D66" s="352"/>
+      <c r="E66" s="352"/>
+      <c r="F66" s="352"/>
+      <c r="G66" s="349">
         <f>IF(K65&gt;=0,J65,L66)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="352"/>
+      <c r="H66" s="350"/>
       <c r="I66" s="167"/>
       <c r="L66" s="192">
         <f>IF(J65&gt;0,J65-MIN(J65,ABS(K65)),J65)</f>
@@ -22158,31 +22152,31 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:12" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="353" t="s">
+      <c r="A68" s="357" t="s">
         <v>400</v>
       </c>
-      <c r="B68" s="354"/>
-      <c r="C68" s="354"/>
-      <c r="D68" s="354"/>
-      <c r="E68" s="354"/>
-      <c r="F68" s="355"/>
-      <c r="G68" s="356">
+      <c r="B68" s="358"/>
+      <c r="C68" s="358"/>
+      <c r="D68" s="358"/>
+      <c r="E68" s="358"/>
+      <c r="F68" s="359"/>
+      <c r="G68" s="360">
         <f>MAX(G66*O19,0)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="357"/>
+      <c r="H68" s="361"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="349" t="s">
+      <c r="A69" s="347" t="s">
         <v>437</v>
       </c>
-      <c r="B69" s="350"/>
-      <c r="C69" s="350"/>
-      <c r="D69" s="350"/>
-      <c r="E69" s="350"/>
-      <c r="F69" s="350"/>
-      <c r="G69" s="350"/>
-      <c r="H69" s="350"/>
+      <c r="B69" s="348"/>
+      <c r="C69" s="348"/>
+      <c r="D69" s="348"/>
+      <c r="E69" s="348"/>
+      <c r="F69" s="348"/>
+      <c r="G69" s="348"/>
+      <c r="H69" s="348"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="194"/>
@@ -22201,64 +22195,64 @@
       <c r="B71" s="83"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="358" t="s">
+      <c r="A72" s="356" t="s">
         <v>384</v>
       </c>
-      <c r="B72" s="358"/>
-      <c r="C72" s="336"/>
-      <c r="D72" s="336"/>
-      <c r="E72" s="336"/>
-      <c r="F72" s="336"/>
-      <c r="G72" s="336"/>
-      <c r="H72" s="336"/>
+      <c r="B72" s="356"/>
+      <c r="C72" s="351"/>
+      <c r="D72" s="351"/>
+      <c r="E72" s="351"/>
+      <c r="F72" s="351"/>
+      <c r="G72" s="351"/>
+      <c r="H72" s="351"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="338" t="s">
+      <c r="A73" s="335" t="s">
         <v>392</v>
       </c>
-      <c r="B73" s="338"/>
-      <c r="C73" s="335"/>
-      <c r="D73" s="335"/>
-      <c r="E73" s="335"/>
-      <c r="F73" s="335"/>
-      <c r="G73" s="335"/>
-      <c r="H73" s="335"/>
+      <c r="B73" s="335"/>
+      <c r="C73" s="336"/>
+      <c r="D73" s="336"/>
+      <c r="E73" s="336"/>
+      <c r="F73" s="336"/>
+      <c r="G73" s="336"/>
+      <c r="H73" s="336"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="338" t="s">
+      <c r="A74" s="335" t="s">
         <v>391</v>
       </c>
-      <c r="B74" s="338"/>
-      <c r="C74" s="335"/>
-      <c r="D74" s="335"/>
-      <c r="E74" s="335"/>
-      <c r="F74" s="335"/>
-      <c r="G74" s="335"/>
-      <c r="H74" s="335"/>
+      <c r="B74" s="335"/>
+      <c r="C74" s="336"/>
+      <c r="D74" s="336"/>
+      <c r="E74" s="336"/>
+      <c r="F74" s="336"/>
+      <c r="G74" s="336"/>
+      <c r="H74" s="336"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="338" t="s">
+      <c r="A75" s="335" t="s">
         <v>390</v>
       </c>
-      <c r="B75" s="338"/>
-      <c r="C75" s="335"/>
-      <c r="D75" s="335"/>
-      <c r="E75" s="335"/>
-      <c r="F75" s="335"/>
-      <c r="G75" s="335"/>
-      <c r="H75" s="335"/>
+      <c r="B75" s="335"/>
+      <c r="C75" s="336"/>
+      <c r="D75" s="336"/>
+      <c r="E75" s="336"/>
+      <c r="F75" s="336"/>
+      <c r="G75" s="336"/>
+      <c r="H75" s="336"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="338" t="s">
+      <c r="A76" s="335" t="s">
         <v>393</v>
       </c>
-      <c r="B76" s="338"/>
-      <c r="C76" s="335"/>
-      <c r="D76" s="335"/>
-      <c r="E76" s="335"/>
-      <c r="F76" s="335"/>
-      <c r="G76" s="335"/>
-      <c r="H76" s="335"/>
+      <c r="B76" s="335"/>
+      <c r="C76" s="336"/>
+      <c r="D76" s="336"/>
+      <c r="E76" s="336"/>
+      <c r="F76" s="336"/>
+      <c r="G76" s="336"/>
+      <c r="H76" s="336"/>
     </row>
     <row r="77" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="191"/>
@@ -22435,20 +22429,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xVo1ouomTjOaV2icooFmRrsqHRw/uaRIg2aVoJGEWdmGee2PjxDnk+C/PVcr/7X6d5dlu6A+sWV0d1tSPCZJJA==" saltValue="1/5yYzxuDoGmYlbVSij3Eg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="41">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A69:H69"/>
     <mergeCell ref="A72:H72"/>
     <mergeCell ref="A76:H76"/>
     <mergeCell ref="A14:F14"/>
@@ -22465,17 +22456,20 @@
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
